--- a/ganttChartForNPowerWeb.xlsx
+++ b/ganttChartForNPowerWeb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5602bbe47fbe7c7f/Documents/npower/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben__\OneDrive\Documents\GitHub\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1450,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/ganttChartForNPowerWeb.xlsx
+++ b/ganttChartForNPowerWeb.xlsx
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1515,6 +1515,9 @@
       <c r="C9" s="1">
         <v>21</v>
       </c>
+      <c r="D9">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -1526,6 +1529,9 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -1537,6 +1543,9 @@
       <c r="C11" s="1">
         <v>7</v>
       </c>
+      <c r="D11" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -1548,6 +1557,9 @@
       <c r="C12" s="1">
         <v>21</v>
       </c>
+      <c r="D12" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -1558,6 +1570,9 @@
       </c>
       <c r="C13" s="1">
         <v>14</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
